--- a/data/ideophones_guessability.xlsx
+++ b/data/ideophones_guessability.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stell\Dropbox\triangulating_iconicity\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AC7485-FC1E-421A-A905-8D8FB0E349B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="90" windowWidth="19395" windowHeight="9000"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ideophones_meta" sheetId="1" r:id="rId1"/>
@@ -20,8 +26,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="language-top-ideophones" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="language-top-ideophones" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="1257" sourceFile="D:\Dropbox\Data\R\Ideophones_meta\out\language-top-ideophones.txt" comma="1">
       <textFields count="6">
         <textField/>
@@ -153,15 +159,9 @@
     <t>glɔmɔɔ</t>
   </si>
   <si>
-    <t>glóvúú</t>
-  </si>
-  <si>
     <t>reŋŋŋ</t>
   </si>
   <si>
-    <t>buc</t>
-  </si>
-  <si>
     <t>hŭmurhŭmul</t>
   </si>
   <si>
@@ -264,9 +264,6 @@
     <t>kpaɖikpaɖi</t>
   </si>
   <si>
-    <t>Zaa zaa</t>
-  </si>
-  <si>
     <t>yota yota</t>
   </si>
   <si>
@@ -426,9 +423,6 @@
     <t>gblɔdɔɔ</t>
   </si>
   <si>
-    <t>toliloli</t>
-  </si>
-  <si>
     <t>kplakplakpla</t>
   </si>
   <si>
@@ -456,9 +450,6 @@
     <t>kpííí</t>
   </si>
   <si>
-    <t>míámíá</t>
-  </si>
-  <si>
     <t>tchallangtchallang</t>
   </si>
   <si>
@@ -799,12 +790,27 @@
   </si>
   <si>
     <t>fwɛ̃fwɛ̃</t>
+  </si>
+  <si>
+    <t>bucbuc</t>
+  </si>
+  <si>
+    <t>tolitoli</t>
+  </si>
+  <si>
+    <t>mlámlá</t>
+  </si>
+  <si>
+    <t>gbóvúú</t>
+  </si>
+  <si>
+    <t>zaa zaa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -838,7 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -846,16 +852,19 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="language-top-ideophones" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="language-top-ideophones" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -897,7 +906,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -930,9 +939,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -965,6 +991,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1140,28 +1183,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.68359375" customWidth="1"/>
+    <col min="2" max="2" width="5.578125" customWidth="1"/>
+    <col min="3" max="3" width="8.41796875" customWidth="1"/>
+    <col min="4" max="4" width="10.26171875" customWidth="1"/>
+    <col min="5" max="5" width="8.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -1173,12 +1217,12 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B2">
         <v>0.96551724137931005</v>
@@ -1190,10 +1234,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1207,10 +1251,10 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1224,10 +1268,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1241,10 +1285,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1258,12 +1302,12 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B7">
         <v>0.931034482758621</v>
@@ -1275,12 +1319,12 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B8">
         <v>0.931034482758621</v>
@@ -1292,12 +1336,12 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B9">
         <v>0.931034482758621</v>
@@ -1309,10 +1353,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1326,12 +1370,12 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11">
         <v>0.9</v>
@@ -1343,10 +1387,10 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1360,10 +1404,10 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1377,12 +1421,12 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B14">
         <v>0.89655172413793105</v>
@@ -1394,12 +1438,12 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B15">
         <v>0.86206896551724099</v>
@@ -1411,12 +1455,12 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B16">
         <v>0.86206896551724099</v>
@@ -1425,12 +1469,12 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B17">
         <v>0.86206896551724099</v>
@@ -1442,12 +1486,12 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B18">
         <v>0.85</v>
@@ -1459,10 +1503,10 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1476,12 +1520,12 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>0.85</v>
@@ -1493,12 +1537,12 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B21">
         <v>0.85</v>
@@ -1510,10 +1554,10 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1527,10 +1571,10 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1544,12 +1588,12 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B24">
         <v>0.82758620689655205</v>
@@ -1561,12 +1605,12 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B25">
         <v>0.82758620689655205</v>
@@ -1575,12 +1619,12 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B26">
         <v>0.82758620689655205</v>
@@ -1592,12 +1636,12 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B27">
         <v>0.82758620689655205</v>
@@ -1609,12 +1653,12 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28">
         <v>0.8</v>
@@ -1626,10 +1670,10 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1643,12 +1687,12 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B30">
         <v>0.8</v>
@@ -1660,10 +1704,10 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1677,12 +1721,12 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B32">
         <v>0.8</v>
@@ -1694,10 +1738,10 @@
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -1711,12 +1755,12 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>0.8</v>
@@ -1728,12 +1772,12 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0.8</v>
@@ -1745,12 +1789,12 @@
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="B36">
         <v>0.8</v>
@@ -1762,12 +1806,12 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0.8</v>
@@ -1779,10 +1823,10 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -1796,12 +1840,12 @@
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B39">
         <v>0.79310344827586199</v>
@@ -1813,12 +1857,12 @@
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B40">
         <v>0.79310344827586199</v>
@@ -1830,12 +1874,12 @@
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B41">
         <v>0.79310344827586199</v>
@@ -1847,12 +1891,12 @@
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B42">
         <v>0.79310344827586199</v>
@@ -1864,12 +1908,12 @@
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B43">
         <v>0.75862068965517204</v>
@@ -1881,12 +1925,12 @@
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B44">
         <v>0.75862068965517204</v>
@@ -1898,12 +1942,12 @@
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B45">
         <v>0.75862068965517204</v>
@@ -1915,12 +1959,12 @@
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B46">
         <v>0.75862068965517204</v>
@@ -1932,10 +1976,10 @@
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -1949,10 +1993,10 @@
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -1966,12 +2010,12 @@
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B49">
         <v>0.75</v>
@@ -1983,10 +2027,10 @@
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -2000,12 +2044,12 @@
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>0.75</v>
@@ -2017,12 +2061,12 @@
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>0.75</v>
@@ -2034,10 +2078,10 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -2051,12 +2095,12 @@
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B54">
         <v>0.75</v>
@@ -2068,12 +2112,12 @@
         <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B55">
         <v>0.75</v>
@@ -2085,12 +2129,12 @@
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B56">
         <v>0.75</v>
@@ -2102,12 +2146,12 @@
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B57">
         <v>0.75</v>
@@ -2119,12 +2163,12 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B58">
         <v>0.75</v>
@@ -2136,10 +2180,10 @@
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -2153,10 +2197,10 @@
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -2170,12 +2214,12 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B61">
         <v>0.75</v>
@@ -2187,10 +2231,10 @@
         <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -2204,12 +2248,12 @@
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B63">
         <v>0.75</v>
@@ -2221,12 +2265,12 @@
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B64">
         <v>0.75</v>
@@ -2238,12 +2282,12 @@
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B65">
         <v>0.72413793103448298</v>
@@ -2252,12 +2296,12 @@
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B66">
         <v>0.72413793103448298</v>
@@ -2266,12 +2310,12 @@
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B67">
         <v>0.72413793103448298</v>
@@ -2280,12 +2324,12 @@
         <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B68">
         <v>0.72413793103448298</v>
@@ -2294,12 +2338,12 @@
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B69">
         <v>0.7</v>
@@ -2311,10 +2355,10 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>34</v>
       </c>
@@ -2328,10 +2372,10 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -2345,12 +2389,12 @@
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="B72">
         <v>0.7</v>
@@ -2362,10 +2406,10 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>35</v>
       </c>
@@ -2379,10 +2423,10 @@
         <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>37</v>
       </c>
@@ -2396,12 +2440,12 @@
         <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B75">
         <v>0.7</v>
@@ -2413,12 +2457,12 @@
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>139</v>
+        <v>251</v>
       </c>
       <c r="B76">
         <v>0.7</v>
@@ -2430,12 +2474,12 @@
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B77">
         <v>0.7</v>
@@ -2447,12 +2491,12 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B78">
         <v>0.7</v>
@@ -2464,12 +2508,12 @@
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B79">
         <v>0.7</v>
@@ -2481,12 +2525,12 @@
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B80">
         <v>0.7</v>
@@ -2498,12 +2542,12 @@
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B81">
         <v>0.7</v>
@@ -2515,12 +2559,12 @@
         <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B82">
         <v>0.7</v>
@@ -2532,12 +2576,12 @@
         <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B83">
         <v>0.7</v>
@@ -2549,12 +2593,12 @@
         <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B84">
         <v>0.7</v>
@@ -2566,12 +2610,12 @@
         <v>5</v>
       </c>
       <c r="E84" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B85">
         <v>0.7</v>
@@ -2583,12 +2627,12 @@
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B86">
         <v>0.7</v>
@@ -2600,12 +2644,12 @@
         <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B87">
         <v>0.7</v>
@@ -2617,12 +2661,12 @@
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B88">
         <v>0.7</v>
@@ -2634,12 +2678,12 @@
         <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B89">
         <v>0.68965517241379304</v>
@@ -2648,12 +2692,12 @@
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B90">
         <v>0.68965517241379304</v>
@@ -2662,12 +2706,12 @@
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B91">
         <v>0.65517241379310298</v>
@@ -2676,12 +2720,12 @@
         <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B92">
         <v>0.65517241379310298</v>
@@ -2690,12 +2734,12 @@
         <v>4</v>
       </c>
       <c r="E92" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B93">
         <v>0.65</v>
@@ -2707,12 +2751,12 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B94">
         <v>0.65</v>
@@ -2724,12 +2768,12 @@
         <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B95">
         <v>0.65</v>
@@ -2741,12 +2785,12 @@
         <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B96">
         <v>0.65</v>
@@ -2758,12 +2802,12 @@
         <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B97">
         <v>0.65</v>
@@ -2775,12 +2819,12 @@
         <v>5</v>
       </c>
       <c r="E97" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B98">
         <v>0.65</v>
@@ -2792,12 +2836,12 @@
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B99">
         <v>0.65</v>
@@ -2809,12 +2853,12 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B100">
         <v>0.65</v>
@@ -2826,12 +2870,12 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B101">
         <v>0.65</v>
@@ -2843,12 +2887,12 @@
         <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B102">
         <v>0.65</v>
@@ -2860,12 +2904,12 @@
         <v>9</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B103">
         <v>0.65</v>
@@ -2877,12 +2921,12 @@
         <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B104">
         <v>0.65</v>
@@ -2894,12 +2938,12 @@
         <v>9</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B105">
         <v>0.65</v>
@@ -2911,12 +2955,12 @@
         <v>9</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B106">
         <v>0.65</v>
@@ -2928,12 +2972,12 @@
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B107">
         <v>0.65</v>
@@ -2945,12 +2989,12 @@
         <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B108">
         <v>0.65</v>
@@ -2962,12 +3006,12 @@
         <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B109">
         <v>0.65</v>
@@ -2979,12 +3023,12 @@
         <v>9</v>
       </c>
       <c r="E109" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B110">
         <v>0.62068965517241403</v>
@@ -2993,12 +3037,12 @@
         <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B111">
         <v>0.62068965517241403</v>
@@ -3007,12 +3051,12 @@
         <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B112">
         <v>0.6</v>
@@ -3024,12 +3068,12 @@
         <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B113">
         <v>0.6</v>
@@ -3041,12 +3085,12 @@
         <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B114">
         <v>0.6</v>
@@ -3058,12 +3102,12 @@
         <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>0.6</v>
@@ -3075,12 +3119,12 @@
         <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B116">
         <v>0.6</v>
@@ -3092,12 +3136,12 @@
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="B117">
         <v>0.6</v>
@@ -3109,12 +3153,12 @@
         <v>9</v>
       </c>
       <c r="E117" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B118">
         <v>0.6</v>
@@ -3126,12 +3170,12 @@
         <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B119">
         <v>0.6</v>
@@ -3143,12 +3187,12 @@
         <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B120">
         <v>0.6</v>
@@ -3160,12 +3204,12 @@
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B121">
         <v>0.6</v>
@@ -3177,12 +3221,12 @@
         <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B122">
         <v>0.6</v>
@@ -3194,12 +3238,12 @@
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B123">
         <v>0.6</v>
@@ -3211,12 +3255,12 @@
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B124">
         <v>0.6</v>
@@ -3228,12 +3272,12 @@
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B125">
         <v>0.6</v>
@@ -3245,12 +3289,12 @@
         <v>9</v>
       </c>
       <c r="E125" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B126">
         <v>0.6</v>
@@ -3262,12 +3306,12 @@
         <v>9</v>
       </c>
       <c r="E126" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B127">
         <v>0.6</v>
@@ -3279,12 +3323,12 @@
         <v>3</v>
       </c>
       <c r="E127" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B128">
         <v>0.6</v>
@@ -3296,12 +3340,12 @@
         <v>5</v>
       </c>
       <c r="E128" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B129">
         <v>0.6</v>
@@ -3313,12 +3357,12 @@
         <v>3</v>
       </c>
       <c r="E129" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B130">
         <v>0.6</v>
@@ -3330,12 +3374,12 @@
         <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B131">
         <v>0.6</v>
@@ -3347,12 +3391,12 @@
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B132">
         <v>0.6</v>
@@ -3364,12 +3408,12 @@
         <v>9</v>
       </c>
       <c r="E132" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B133">
         <v>0.6</v>
@@ -3381,12 +3425,12 @@
         <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B134">
         <v>0.58620689655172398</v>
@@ -3395,12 +3439,12 @@
         <v>4</v>
       </c>
       <c r="E134" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B135">
         <v>0.58620689655172398</v>
@@ -3409,12 +3453,12 @@
         <v>4</v>
       </c>
       <c r="E135" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B136">
         <v>0.55172413793103403</v>
@@ -3423,12 +3467,12 @@
         <v>4</v>
       </c>
       <c r="E136" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B137">
         <v>0.55172413793103403</v>
@@ -3437,12 +3481,12 @@
         <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B138">
         <v>0.55000000000000004</v>
@@ -3454,12 +3498,12 @@
         <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B139">
         <v>0.55000000000000004</v>
@@ -3471,12 +3515,12 @@
         <v>5</v>
       </c>
       <c r="E139" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B140">
         <v>0.55000000000000004</v>
@@ -3488,12 +3532,12 @@
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B141">
         <v>0.55000000000000004</v>
@@ -3505,12 +3549,12 @@
         <v>9</v>
       </c>
       <c r="E141" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B142">
         <v>0.55000000000000004</v>
@@ -3522,12 +3566,12 @@
         <v>9</v>
       </c>
       <c r="E142" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B143">
         <v>0.55000000000000004</v>
@@ -3539,12 +3583,12 @@
         <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B144">
         <v>0.55000000000000004</v>
@@ -3556,12 +3600,12 @@
         <v>9</v>
       </c>
       <c r="E144" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B145">
         <v>0.55000000000000004</v>
@@ -3573,12 +3617,12 @@
         <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B146">
         <v>0.55000000000000004</v>
@@ -3590,12 +3634,12 @@
         <v>5</v>
       </c>
       <c r="E146" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B147">
         <v>0.55000000000000004</v>
@@ -3607,12 +3651,12 @@
         <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B148">
         <v>0.55000000000000004</v>
@@ -3624,12 +3668,12 @@
         <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B149">
         <v>0.55000000000000004</v>
@@ -3641,12 +3685,12 @@
         <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B150">
         <v>0.55000000000000004</v>
@@ -3658,12 +3702,12 @@
         <v>5</v>
       </c>
       <c r="E150" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B151">
         <v>0.55000000000000004</v>
@@ -3675,12 +3719,12 @@
         <v>9</v>
       </c>
       <c r="E151" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B152">
         <v>0.55000000000000004</v>
@@ -3692,12 +3736,12 @@
         <v>12</v>
       </c>
       <c r="E152" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B153">
         <v>0.55000000000000004</v>
@@ -3709,12 +3753,12 @@
         <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B154">
         <v>0.55000000000000004</v>
@@ -3726,12 +3770,12 @@
         <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B155">
         <v>0.55000000000000004</v>
@@ -3743,12 +3787,12 @@
         <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B156">
         <v>0.55000000000000004</v>
@@ -3760,12 +3804,12 @@
         <v>9</v>
       </c>
       <c r="E156" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B157">
         <v>0.55000000000000004</v>
@@ -3777,12 +3821,12 @@
         <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B158">
         <v>0.55000000000000004</v>
@@ -3794,12 +3838,12 @@
         <v>9</v>
       </c>
       <c r="E158" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B159">
         <v>0.55000000000000004</v>
@@ -3811,12 +3855,12 @@
         <v>5</v>
       </c>
       <c r="E159" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B160">
         <v>0.51724137931034497</v>
@@ -3828,12 +3872,12 @@
         <v>5</v>
       </c>
       <c r="E160" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B161">
         <v>0.5</v>
@@ -3845,12 +3889,12 @@
         <v>12</v>
       </c>
       <c r="E161" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B162">
         <v>0.5</v>
@@ -3862,12 +3906,12 @@
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B163">
         <v>0.5</v>
@@ -3879,12 +3923,12 @@
         <v>5</v>
       </c>
       <c r="E163" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B164">
         <v>0.5</v>
@@ -3896,12 +3940,12 @@
         <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B165">
         <v>0.5</v>
@@ -3913,12 +3957,12 @@
         <v>9</v>
       </c>
       <c r="E165" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B166">
         <v>0.5</v>
@@ -3930,12 +3974,12 @@
         <v>5</v>
       </c>
       <c r="E166" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B167">
         <v>0.5</v>
@@ -3947,12 +3991,12 @@
         <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B168">
         <v>0.5</v>
@@ -3964,12 +4008,12 @@
         <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B169">
         <v>0.5</v>
@@ -3981,12 +4025,12 @@
         <v>5</v>
       </c>
       <c r="E169" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B170">
         <v>0.5</v>
@@ -3998,12 +4042,12 @@
         <v>5</v>
       </c>
       <c r="E170" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B171">
         <v>0.5</v>
@@ -4015,12 +4059,12 @@
         <v>5</v>
       </c>
       <c r="E171" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B172">
         <v>0.5</v>
@@ -4032,12 +4076,12 @@
         <v>12</v>
       </c>
       <c r="E172" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B173">
         <v>0.5</v>
@@ -4049,12 +4093,12 @@
         <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B174">
         <v>0.5</v>
@@ -4066,12 +4110,12 @@
         <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B175">
         <v>0.5</v>
@@ -4083,12 +4127,12 @@
         <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B176">
         <v>0.5</v>
@@ -4100,12 +4144,12 @@
         <v>9</v>
       </c>
       <c r="E176" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B177">
         <v>0.5</v>
@@ -4117,12 +4161,12 @@
         <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B178">
         <v>0.5</v>
@@ -4134,12 +4178,12 @@
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B179">
         <v>0.5</v>
@@ -4151,12 +4195,12 @@
         <v>3</v>
       </c>
       <c r="E179" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B180">
         <v>0.5</v>
@@ -4168,12 +4212,12 @@
         <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B181">
         <v>0.5</v>
@@ -4185,12 +4229,12 @@
         <v>5</v>
       </c>
       <c r="E181" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B182">
         <v>0.48275862068965503</v>
@@ -4202,12 +4246,12 @@
         <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B183">
         <v>0.45</v>
@@ -4219,12 +4263,12 @@
         <v>12</v>
       </c>
       <c r="E183" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B184">
         <v>0.45</v>
@@ -4236,12 +4280,12 @@
         <v>5</v>
       </c>
       <c r="E184" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B185">
         <v>0.45</v>
@@ -4253,12 +4297,12 @@
         <v>9</v>
       </c>
       <c r="E185" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B186">
         <v>0.45</v>
@@ -4270,12 +4314,12 @@
         <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B187">
         <v>0.45</v>
@@ -4287,12 +4331,12 @@
         <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B188">
         <v>0.45</v>
@@ -4304,12 +4348,12 @@
         <v>12</v>
       </c>
       <c r="E188" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B189">
         <v>0.45</v>
@@ -4321,12 +4365,12 @@
         <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B190">
         <v>0.45</v>
@@ -4338,12 +4382,12 @@
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B191">
         <v>0.45</v>
@@ -4355,12 +4399,12 @@
         <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B192">
         <v>0.45</v>
@@ -4372,12 +4416,12 @@
         <v>5</v>
       </c>
       <c r="E192" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B193">
         <v>0.45</v>
@@ -4389,12 +4433,12 @@
         <v>5</v>
       </c>
       <c r="E193" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B194">
         <v>0.45</v>
@@ -4406,12 +4450,12 @@
         <v>12</v>
       </c>
       <c r="E194" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B195">
         <v>0.45</v>
@@ -4423,12 +4467,12 @@
         <v>9</v>
       </c>
       <c r="E195" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B196">
         <v>0.45</v>
@@ -4440,12 +4484,12 @@
         <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B197">
         <v>0.45</v>
@@ -4457,12 +4501,12 @@
         <v>12</v>
       </c>
       <c r="E197" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B198">
         <v>0.45</v>
@@ -4474,12 +4518,12 @@
         <v>9</v>
       </c>
       <c r="E198" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B199">
         <v>0.45</v>
@@ -4491,12 +4535,12 @@
         <v>9</v>
       </c>
       <c r="E199" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B200">
         <v>0.45</v>
@@ -4508,12 +4552,12 @@
         <v>9</v>
       </c>
       <c r="E200" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B201">
         <v>0.45</v>
@@ -4525,12 +4569,12 @@
         <v>9</v>
       </c>
       <c r="E201" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>0.44827586206896602</v>
@@ -4542,12 +4586,12 @@
         <v>5</v>
       </c>
       <c r="E202" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B203">
         <v>0.41379310344827602</v>
@@ -4556,12 +4600,12 @@
         <v>4</v>
       </c>
       <c r="E203" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B204">
         <v>0.4</v>
@@ -4573,12 +4617,12 @@
         <v>5</v>
       </c>
       <c r="E204" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B205">
         <v>0.4</v>
@@ -4590,12 +4634,12 @@
         <v>12</v>
       </c>
       <c r="E205" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B206">
         <v>0.4</v>
@@ -4607,12 +4651,12 @@
         <v>9</v>
       </c>
       <c r="E206" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B207">
         <v>0.4</v>
@@ -4624,12 +4668,12 @@
         <v>12</v>
       </c>
       <c r="E207" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B208">
         <v>0.4</v>
@@ -4641,12 +4685,12 @@
         <v>9</v>
       </c>
       <c r="E208" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="B209">
         <v>0.4</v>
@@ -4658,12 +4702,12 @@
         <v>3</v>
       </c>
       <c r="E209" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B210">
         <v>0.4</v>
@@ -4675,12 +4719,12 @@
         <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B211">
         <v>0.4</v>
@@ -4692,12 +4736,12 @@
         <v>5</v>
       </c>
       <c r="E211" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B212">
         <v>0.4</v>
@@ -4709,12 +4753,12 @@
         <v>12</v>
       </c>
       <c r="E212" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B213">
         <v>0.4</v>
@@ -4726,12 +4770,12 @@
         <v>12</v>
       </c>
       <c r="E213" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B214">
         <v>0.4</v>
@@ -4743,12 +4787,12 @@
         <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B215">
         <v>0.4</v>
@@ -4760,12 +4804,12 @@
         <v>5</v>
       </c>
       <c r="E215" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B216">
         <v>0.4</v>
@@ -4777,12 +4821,12 @@
         <v>12</v>
       </c>
       <c r="E216" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B217">
         <v>0.4</v>
@@ -4794,12 +4838,12 @@
         <v>5</v>
       </c>
       <c r="E217" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B218">
         <v>0.35</v>
@@ -4811,12 +4855,12 @@
         <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B219">
         <v>0.35</v>
@@ -4828,12 +4872,12 @@
         <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B220">
         <v>0.35</v>
@@ -4845,12 +4889,12 @@
         <v>9</v>
       </c>
       <c r="E220" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B221">
         <v>0.35</v>
@@ -4862,12 +4906,12 @@
         <v>9</v>
       </c>
       <c r="E221" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B222">
         <v>0.35</v>
@@ -4879,12 +4923,12 @@
         <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B223">
         <v>0.35</v>
@@ -4896,12 +4940,12 @@
         <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B224">
         <v>0.35</v>
@@ -4913,12 +4957,12 @@
         <v>5</v>
       </c>
       <c r="E224" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B225">
         <v>0.35</v>
@@ -4930,12 +4974,12 @@
         <v>5</v>
       </c>
       <c r="E225" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B226">
         <v>0.3</v>
@@ -4947,12 +4991,12 @@
         <v>3</v>
       </c>
       <c r="E226" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B227">
         <v>0.3</v>
@@ -4964,12 +5008,12 @@
         <v>9</v>
       </c>
       <c r="E227" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B228">
         <v>0.3</v>
@@ -4981,12 +5025,12 @@
         <v>9</v>
       </c>
       <c r="E228" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B229">
         <v>0.3</v>
@@ -4998,12 +5042,12 @@
         <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B230">
         <v>0.3</v>
@@ -5015,12 +5059,12 @@
         <v>12</v>
       </c>
       <c r="E230" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B231">
         <v>0.3</v>
@@ -5032,12 +5076,12 @@
         <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B232">
         <v>0.3</v>
@@ -5049,12 +5093,12 @@
         <v>5</v>
       </c>
       <c r="E232" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B233">
         <v>0.3</v>
@@ -5066,12 +5110,12 @@
         <v>5</v>
       </c>
       <c r="E233" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B234">
         <v>0.25</v>
@@ -5083,12 +5127,12 @@
         <v>12</v>
       </c>
       <c r="E234" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B235">
         <v>0.25</v>
@@ -5100,12 +5144,12 @@
         <v>3</v>
       </c>
       <c r="E235" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B236">
         <v>0.2</v>
@@ -5117,12 +5161,12 @@
         <v>5</v>
       </c>
       <c r="E236" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B237">
         <v>0.2</v>
@@ -5134,12 +5178,12 @@
         <v>9</v>
       </c>
       <c r="E237" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B238">
         <v>0.15</v>
@@ -5151,12 +5195,12 @@
         <v>9</v>
       </c>
       <c r="E238" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B239">
         <v>0.15</v>
@@ -5168,12 +5212,12 @@
         <v>10</v>
       </c>
       <c r="E239" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B240">
         <v>0.15</v>
@@ -5185,12 +5229,12 @@
         <v>5</v>
       </c>
       <c r="E240" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B241">
         <v>0.1</v>
@@ -5202,12 +5246,12 @@
         <v>3</v>
       </c>
       <c r="E241" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B242">
         <v>0.1</v>
@@ -5219,12 +5263,18 @@
         <v>12</v>
       </c>
       <c r="E242" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E242"/>
-  <sortState ref="A205:J242">
+  <autoFilter ref="A1:E242" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Japanese"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A205:J242">
     <sortCondition ref="A205"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5233,436 +5283,436 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C39" sqref="C2:C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C2">
         <v>0.82758620689655205</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C3">
         <v>0.75862068965517204</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C4">
         <v>0.72413793103448298</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C5">
         <v>0.86206896551724099</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C6">
         <v>0.79310344827586199</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C7">
         <v>0.68965517241379304</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C8">
         <v>0.75862068965517204</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C9">
         <v>0.82758620689655205</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C10">
         <v>0.65517241379310298</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C11">
         <v>0.82758620689655205</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C12">
         <v>0.931034482758621</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C13">
         <v>0.82758620689655205</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C14">
         <v>0.58620689655172398</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C15">
         <v>0.931034482758621</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C16">
         <v>0.48275862068965503</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C17">
         <v>0.55172413793103403</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C18">
         <v>0.86206896551724099</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C19">
         <v>0.75862068965517204</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C20">
         <v>0.96551724137931005</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C21">
         <v>0.41379310344827602</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C22">
         <v>0.72413793103448298</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C23">
         <v>0.68965517241379304</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C24">
         <v>0.72413793103448298</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C25">
         <v>0.72413793103448298</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C26">
         <v>0.86206896551724099</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C27">
         <v>0.89655172413793105</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C28">
         <v>0.79310344827586199</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C29">
         <v>0.55172413793103403</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C30">
         <v>0.44827586206896602</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C31">
         <v>0.931034482758621</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C32">
         <v>0.65517241379310298</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C33">
         <v>0.75862068965517204</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C34">
         <v>0.62068965517241403</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C35">
         <v>0.79310344827586199</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C36">
         <v>0.62068965517241403</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C37">
         <v>0.58620689655172398</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C38">
         <v>0.79310344827586199</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C39">
         <v>0.51724137931034497</v>
@@ -5674,12 +5724,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/ideophones_guessability.xlsx
+++ b/data/ideophones_guessability.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stell\Dropbox\triangulating_iconicity\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Data\R\triangulating_iconicity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AC7485-FC1E-421A-A905-8D8FB0E349B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392"/>
   </bookViews>
   <sheets>
     <sheet name="ideophones_meta" sheetId="1" r:id="rId1"/>
@@ -26,8 +25,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="language-top-ideophones" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="language-top-ideophones" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="1257" sourceFile="D:\Dropbox\Data\R\Ideophones_meta\out\language-top-ideophones.txt" comma="1">
       <textFields count="6">
         <textField/>
@@ -810,7 +809,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -844,7 +843,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -860,11 +859,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="language-top-ideophones" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="language-top-ideophones" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -939,23 +938,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -991,23 +973,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1183,27 +1148,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A217" sqref="A217"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" customWidth="1"/>
-    <col min="2" max="2" width="5.578125" customWidth="1"/>
-    <col min="3" max="3" width="8.41796875" customWidth="1"/>
-    <col min="4" max="4" width="10.26171875" customWidth="1"/>
-    <col min="5" max="5" width="8.83984375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>195</v>
       </c>
@@ -1220,7 +1184,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -1237,7 +1201,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1254,7 +1218,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1271,7 +1235,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1288,7 +1252,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1305,7 +1269,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>206</v>
       </c>
@@ -1322,7 +1286,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -1339,7 +1303,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>225</v>
       </c>
@@ -1356,7 +1320,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1373,7 +1337,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1390,7 +1354,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1407,7 +1371,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1424,7 +1388,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>221</v>
       </c>
@@ -1441,7 +1405,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>220</v>
       </c>
@@ -1458,7 +1422,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>212</v>
       </c>
@@ -1472,7 +1436,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -1489,7 +1453,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>206</v>
       </c>
@@ -1506,7 +1470,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1523,7 +1487,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1540,7 +1504,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -1557,7 +1521,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1574,7 +1538,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1591,7 +1555,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>196</v>
       </c>
@@ -1608,7 +1572,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>205</v>
       </c>
@@ -1622,7 +1586,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>203</v>
       </c>
@@ -1639,7 +1603,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>207</v>
       </c>
@@ -1656,7 +1620,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1673,7 +1637,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1690,7 +1654,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>192</v>
       </c>
@@ -1707,7 +1671,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1724,7 +1688,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>167</v>
       </c>
@@ -1741,7 +1705,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -1758,7 +1722,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1775,7 +1739,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1792,7 +1756,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>249</v>
       </c>
@@ -1809,7 +1773,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1826,7 +1790,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -1843,7 +1807,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>229</v>
       </c>
@@ -1860,7 +1824,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>222</v>
       </c>
@@ -1877,7 +1841,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>200</v>
       </c>
@@ -1894,7 +1858,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>232</v>
       </c>
@@ -1911,7 +1875,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>197</v>
       </c>
@@ -1928,7 +1892,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>202</v>
       </c>
@@ -1945,7 +1909,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>227</v>
       </c>
@@ -1962,7 +1926,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>213</v>
       </c>
@@ -1979,7 +1943,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -1996,7 +1960,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -2013,7 +1977,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>221</v>
       </c>
@@ -2030,7 +1994,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -2047,7 +2011,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2064,7 +2028,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2081,7 +2045,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -2098,7 +2062,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>241</v>
       </c>
@@ -2115,7 +2079,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -2132,7 +2096,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -2149,7 +2113,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -2166,7 +2130,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -2183,7 +2147,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -2200,7 +2164,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -2217,7 +2181,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>45</v>
       </c>
@@ -2234,7 +2198,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -2251,7 +2215,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>170</v>
       </c>
@@ -2268,7 +2232,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -2285,7 +2249,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>198</v>
       </c>
@@ -2299,7 +2263,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>216</v>
       </c>
@@ -2313,7 +2277,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>218</v>
       </c>
@@ -2327,7 +2291,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>219</v>
       </c>
@@ -2341,7 +2305,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>153</v>
       </c>
@@ -2358,7 +2322,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>34</v>
       </c>
@@ -2375,7 +2339,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -2392,7 +2356,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>252</v>
       </c>
@@ -2409,7 +2373,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>35</v>
       </c>
@@ -2426,7 +2390,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>37</v>
       </c>
@@ -2443,7 +2407,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>190</v>
       </c>
@@ -2460,7 +2424,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>251</v>
       </c>
@@ -2477,7 +2441,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>140</v>
       </c>
@@ -2494,7 +2458,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>143</v>
       </c>
@@ -2511,7 +2475,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>148</v>
       </c>
@@ -2528,7 +2492,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>171</v>
       </c>
@@ -2545,7 +2509,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>179</v>
       </c>
@@ -2562,7 +2526,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>186</v>
       </c>
@@ -2579,7 +2543,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -2596,7 +2560,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>107</v>
       </c>
@@ -2613,7 +2577,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>112</v>
       </c>
@@ -2630,7 +2594,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>158</v>
       </c>
@@ -2647,7 +2611,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>164</v>
       </c>
@@ -2664,7 +2628,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>245</v>
       </c>
@@ -2681,7 +2645,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>201</v>
       </c>
@@ -2695,7 +2659,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>217</v>
       </c>
@@ -2709,7 +2673,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>204</v>
       </c>
@@ -2723,7 +2687,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>226</v>
       </c>
@@ -2737,7 +2701,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>117</v>
       </c>
@@ -2754,7 +2718,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>118</v>
       </c>
@@ -2771,7 +2735,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>125</v>
       </c>
@@ -2788,7 +2752,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -2805,7 +2769,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>131</v>
       </c>
@@ -2822,7 +2786,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>132</v>
       </c>
@@ -2839,7 +2803,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>135</v>
       </c>
@@ -2856,7 +2820,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>139</v>
       </c>
@@ -2873,7 +2837,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>144</v>
       </c>
@@ -2890,7 +2854,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>145</v>
       </c>
@@ -2907,7 +2871,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>152</v>
       </c>
@@ -2924,7 +2888,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>174</v>
       </c>
@@ -2941,7 +2905,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>175</v>
       </c>
@@ -2958,7 +2922,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>181</v>
       </c>
@@ -2975,7 +2939,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>101</v>
       </c>
@@ -2992,7 +2956,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -3009,7 +2973,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>232</v>
       </c>
@@ -3026,7 +2990,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>228</v>
       </c>
@@ -3040,7 +3004,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>230</v>
       </c>
@@ -3054,7 +3018,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>236</v>
       </c>
@@ -3071,7 +3035,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>157</v>
       </c>
@@ -3088,7 +3052,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>166</v>
       </c>
@@ -3105,7 +3069,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -3122,7 +3086,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -3139,7 +3103,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>250</v>
       </c>
@@ -3156,7 +3120,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>128</v>
       </c>
@@ -3173,7 +3137,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>130</v>
       </c>
@@ -3190,7 +3154,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -3207,7 +3171,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>136</v>
       </c>
@@ -3224,7 +3188,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>150</v>
       </c>
@@ -3241,7 +3205,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>168</v>
       </c>
@@ -3258,7 +3222,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>169</v>
       </c>
@@ -3275,7 +3239,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>172</v>
       </c>
@@ -3292,7 +3256,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>176</v>
       </c>
@@ -3309,7 +3273,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>182</v>
       </c>
@@ -3326,7 +3290,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>189</v>
       </c>
@@ -3343,7 +3307,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>98</v>
       </c>
@@ -3360,7 +3324,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>110</v>
       </c>
@@ -3377,7 +3341,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>113</v>
       </c>
@@ -3394,7 +3358,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>159</v>
       </c>
@@ -3411,7 +3375,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>161</v>
       </c>
@@ -3428,7 +3392,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>208</v>
       </c>
@@ -3442,7 +3406,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>231</v>
       </c>
@@ -3456,7 +3420,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>211</v>
       </c>
@@ -3470,7 +3434,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>223</v>
       </c>
@@ -3484,7 +3448,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>237</v>
       </c>
@@ -3501,7 +3465,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>185</v>
       </c>
@@ -3518,7 +3482,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>151</v>
       </c>
@@ -3535,7 +3499,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>146</v>
       </c>
@@ -3552,7 +3516,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>147</v>
       </c>
@@ -3569,7 +3533,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>187</v>
       </c>
@@ -3586,7 +3550,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>173</v>
       </c>
@@ -3603,7 +3567,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>100</v>
       </c>
@@ -3620,7 +3584,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>129</v>
       </c>
@@ -3637,7 +3601,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>178</v>
       </c>
@@ -3654,7 +3618,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>177</v>
       </c>
@@ -3671,7 +3635,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>180</v>
       </c>
@@ -3688,7 +3652,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>111</v>
       </c>
@@ -3705,7 +3669,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>105</v>
       </c>
@@ -3722,7 +3686,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>246</v>
       </c>
@@ -3739,7 +3703,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>244</v>
       </c>
@@ -3756,7 +3720,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>120</v>
       </c>
@@ -3773,7 +3737,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>119</v>
       </c>
@@ -3790,7 +3754,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>247</v>
       </c>
@@ -3807,7 +3771,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>141</v>
       </c>
@@ -3824,7 +3788,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>104</v>
       </c>
@@ -3841,7 +3805,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>163</v>
       </c>
@@ -3858,7 +3822,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>233</v>
       </c>
@@ -3875,7 +3839,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>133</v>
       </c>
@@ -3892,7 +3856,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>138</v>
       </c>
@@ -3909,7 +3873,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>149</v>
       </c>
@@ -3926,7 +3890,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>155</v>
       </c>
@@ -3943,7 +3907,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>160</v>
       </c>
@@ -3960,7 +3924,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>238</v>
       </c>
@@ -3977,7 +3941,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>184</v>
       </c>
@@ -3994,7 +3958,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>183</v>
       </c>
@@ -4011,7 +3975,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>188</v>
       </c>
@@ -4028,7 +3992,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>165</v>
       </c>
@@ -4045,7 +4009,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>127</v>
       </c>
@@ -4062,7 +4026,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>59</v>
       </c>
@@ -4079,7 +4043,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>103</v>
       </c>
@@ -4096,7 +4060,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>240</v>
       </c>
@@ -4113,7 +4077,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>156</v>
       </c>
@@ -4130,7 +4094,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>106</v>
       </c>
@@ -4147,7 +4111,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>123</v>
       </c>
@@ -4164,7 +4128,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>114</v>
       </c>
@@ -4181,7 +4145,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>137</v>
       </c>
@@ -4198,7 +4162,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>239</v>
       </c>
@@ -4215,7 +4179,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>108</v>
       </c>
@@ -4232,7 +4196,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>210</v>
       </c>
@@ -4249,7 +4213,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>57</v>
       </c>
@@ -4266,7 +4230,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>55</v>
       </c>
@@ -4283,7 +4247,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>53</v>
       </c>
@@ -4300,7 +4264,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>154</v>
       </c>
@@ -4317,7 +4281,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>121</v>
       </c>
@@ -4334,7 +4298,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>191</v>
       </c>
@@ -4351,7 +4315,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>122</v>
       </c>
@@ -4368,7 +4332,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>78</v>
       </c>
@@ -4385,7 +4349,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>52</v>
       </c>
@@ -4402,7 +4366,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>162</v>
       </c>
@@ -4419,7 +4383,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>56</v>
       </c>
@@ -4436,7 +4400,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>58</v>
       </c>
@@ -4453,7 +4417,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>76</v>
       </c>
@@ -4470,7 +4434,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>91</v>
       </c>
@@ -4487,7 +4451,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>90</v>
       </c>
@@ -4504,7 +4468,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>54</v>
       </c>
@@ -4521,7 +4485,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>124</v>
       </c>
@@ -4538,7 +4502,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>126</v>
       </c>
@@ -4555,7 +4519,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>89</v>
       </c>
@@ -4572,7 +4536,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>224</v>
       </c>
@@ -4589,7 +4553,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>215</v>
       </c>
@@ -4603,7 +4567,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>242</v>
       </c>
@@ -4620,7 +4584,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>243</v>
       </c>
@@ -4637,7 +4601,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>67</v>
       </c>
@@ -4654,7 +4618,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>68</v>
       </c>
@@ -4671,7 +4635,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>73</v>
       </c>
@@ -4688,7 +4652,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>253</v>
       </c>
@@ -4705,7 +4669,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>142</v>
       </c>
@@ -4722,7 +4686,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>60</v>
       </c>
@@ -4739,7 +4703,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>61</v>
       </c>
@@ -4756,7 +4720,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>62</v>
       </c>
@@ -4773,7 +4737,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>248</v>
       </c>
@@ -4790,7 +4754,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>92</v>
       </c>
@@ -4807,7 +4771,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>93</v>
       </c>
@@ -4824,7 +4788,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>74</v>
       </c>
@@ -4841,7 +4805,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>69</v>
       </c>
@@ -4858,7 +4822,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>70</v>
       </c>
@@ -4875,7 +4839,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>82</v>
       </c>
@@ -4892,7 +4856,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>77</v>
       </c>
@@ -4909,7 +4873,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>79</v>
       </c>
@@ -4926,7 +4890,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>80</v>
       </c>
@@ -4943,7 +4907,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>81</v>
       </c>
@@ -4960,7 +4924,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>94</v>
       </c>
@@ -4977,7 +4941,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>235</v>
       </c>
@@ -4994,7 +4958,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>71</v>
       </c>
@@ -5011,7 +4975,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>72</v>
       </c>
@@ -5028,7 +4992,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>63</v>
       </c>
@@ -5045,7 +5009,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>64</v>
       </c>
@@ -5062,7 +5026,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>83</v>
       </c>
@@ -5079,7 +5043,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>84</v>
       </c>
@@ -5096,7 +5060,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>95</v>
       </c>
@@ -5113,7 +5077,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>85</v>
       </c>
@@ -5130,7 +5094,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>86</v>
       </c>
@@ -5147,7 +5111,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>65</v>
       </c>
@@ -5164,7 +5128,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>96</v>
       </c>
@@ -5181,7 +5145,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>75</v>
       </c>
@@ -5198,7 +5162,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>66</v>
       </c>
@@ -5215,7 +5179,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>87</v>
       </c>
@@ -5232,7 +5196,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>88</v>
       </c>
@@ -5249,7 +5213,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>97</v>
       </c>
@@ -5267,14 +5231,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E242" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Japanese"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A205:J242">
+  <autoFilter ref="A1:E242"/>
+  <sortState ref="A205:J242">
     <sortCondition ref="A205"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5283,16 +5241,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C39" sqref="C2:C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>195</v>
       </c>
@@ -5300,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5311,7 +5269,7 @@
         <v>0.82758620689655205</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5322,7 +5280,7 @@
         <v>0.75862068965517204</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5333,7 +5291,7 @@
         <v>0.72413793103448298</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5344,7 +5302,7 @@
         <v>0.86206896551724099</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5355,7 +5313,7 @@
         <v>0.79310344827586199</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5366,7 +5324,7 @@
         <v>0.68965517241379304</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5377,7 +5335,7 @@
         <v>0.75862068965517204</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5388,7 +5346,7 @@
         <v>0.82758620689655205</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5399,7 +5357,7 @@
         <v>0.65517241379310298</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5410,7 +5368,7 @@
         <v>0.82758620689655205</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5421,7 +5379,7 @@
         <v>0.931034482758621</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5432,7 +5390,7 @@
         <v>0.82758620689655205</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5443,7 +5401,7 @@
         <v>0.58620689655172398</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5454,7 +5412,7 @@
         <v>0.931034482758621</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5465,7 +5423,7 @@
         <v>0.48275862068965503</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5476,7 +5434,7 @@
         <v>0.55172413793103403</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5487,7 +5445,7 @@
         <v>0.86206896551724099</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5498,7 +5456,7 @@
         <v>0.75862068965517204</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5509,7 +5467,7 @@
         <v>0.96551724137931005</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5520,7 +5478,7 @@
         <v>0.41379310344827602</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5531,7 +5489,7 @@
         <v>0.72413793103448298</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5542,7 +5500,7 @@
         <v>0.68965517241379304</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5553,7 +5511,7 @@
         <v>0.72413793103448298</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5564,7 +5522,7 @@
         <v>0.72413793103448298</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5575,7 +5533,7 @@
         <v>0.86206896551724099</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5586,7 +5544,7 @@
         <v>0.89655172413793105</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5597,7 +5555,7 @@
         <v>0.79310344827586199</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5608,7 +5566,7 @@
         <v>0.55172413793103403</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5619,7 +5577,7 @@
         <v>0.44827586206896602</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5630,7 +5588,7 @@
         <v>0.931034482758621</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5641,7 +5599,7 @@
         <v>0.65517241379310298</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5652,7 +5610,7 @@
         <v>0.75862068965517204</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5663,7 +5621,7 @@
         <v>0.62068965517241403</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5674,7 +5632,7 @@
         <v>0.79310344827586199</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5685,7 +5643,7 @@
         <v>0.62068965517241403</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5696,7 +5654,7 @@
         <v>0.58620689655172398</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5707,7 +5665,7 @@
         <v>0.79310344827586199</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5724,12 +5682,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
